--- a/01_Input/00_CO Validation/Nigeria - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Nigeria - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_548EB2636DD9345948A5ABEB674C5A36783B1F62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0348D595-7BE8-487F-89E1-B4D24B114241}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_548EB2636DD9345948A5ABEB674C5A36783B1F62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64CE59B4-D35E-4A68-9F27-9A17980581E1}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
   <si>
     <t>Project ID</t>
   </si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Budget (Nigerian)</t>
   </si>
   <si>
     <t>Budget</t>
@@ -527,18 +533,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -562,6 +556,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77441D1D-9D5F-443A-AA56-C74F30CAFFF5}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,565 +884,621 @@
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="32.140625" customWidth="1"/>
-    <col min="13" max="13" width="32.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:20" ht="45.75">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="106.5">
-      <c r="A2" s="16" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="16" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="106.5">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="21">
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="17">
         <v>22466600</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="17">
+        <f>D2/764</f>
+        <v>29406.544502617802</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="12">
         <v>52</v>
       </c>
-      <c r="H2" s="16">
+      <c r="I2" s="12">
         <v>104</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:20" ht="60.75">
+      <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="17">
+        <v>37128204.799999997</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" ref="E3:E14" si="0">D3/764</f>
+        <v>48597.126701570676</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" ht="60.75">
-      <c r="A3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="21">
-        <v>37128204.799999997</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>46000</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="1:20" ht="45.75">
+      <c r="A4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="17">
+        <v>2784615.36</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="0"/>
+        <v>3644.7845026178011</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>140</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" ht="60.75">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="17">
+        <v>33647435.600000001</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>44041.146073298434</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>24000</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:20" ht="45.75">
+      <c r="A6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="17">
+        <v>3707150</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>4852.2905759162304</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2400</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:20" ht="60.75">
+      <c r="A7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="17">
+        <v>94465293.400000006</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>123645.6719895288</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2520</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" ht="60.75">
+      <c r="A8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="17">
+        <v>94465293.400000006</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>123645.6719895288</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2520</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" ht="60.75">
+      <c r="A9" s="12">
+        <v>10046575</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="17">
+        <v>86323921.109999999</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>112989.42553664921</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2521</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" ht="76.5">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="17">
+        <v>98175000</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>128501.30890052357</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="12">
         <v>0</v>
       </c>
-      <c r="H3" s="16">
-        <v>46000</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="I10" s="12">
+        <v>2521</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" ht="60.75">
+      <c r="A11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="17">
+        <v>79175538.799999997</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>103632.90418848167</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+    </row>
+    <row r="12" spans="1:20" ht="60.75">
+      <c r="A12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="17">
+        <v>5220250</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>6832.7879581151828</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" ht="45.75">
-      <c r="A4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="21">
-        <v>2784615.36</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="G12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="12">
         <v>0</v>
       </c>
-      <c r="H4" s="16">
-        <v>140</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-    </row>
-    <row r="5" spans="1:19" ht="60.75">
-      <c r="A5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="21">
-        <v>33647435.600000001</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="I12" s="12">
+        <v>16</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+    </row>
+    <row r="13" spans="1:20" ht="106.5">
+      <c r="A13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="17">
+        <v>7604750</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>9953.8612565445019</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="16">
-        <v>24000</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-    </row>
-    <row r="6" spans="1:19" ht="45.75">
-      <c r="A6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="21">
-        <v>3707150</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="16">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2400</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="I13" s="12">
+        <v>16</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="1:20" ht="76.5">
+      <c r="A14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="17">
+        <v>10440500</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>13665.575916230366</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-    </row>
-    <row r="7" spans="1:19" ht="60.75">
-      <c r="A7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="21">
-        <v>94465293.400000006</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="G14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="12">
         <v>0</v>
       </c>
-      <c r="H7" s="16">
-        <v>2520</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:19" ht="60.75">
-      <c r="A8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="21">
-        <v>94465293.400000006</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>2520</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" spans="1:19" ht="60.75">
-      <c r="A9" s="16">
-        <v>10046575</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="21">
-        <v>86323921.109999999</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>2521</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-    </row>
-    <row r="10" spans="1:19" ht="76.5">
-      <c r="A10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="21">
-        <v>98175000</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>2521</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-    </row>
-    <row r="11" spans="1:19" ht="60.75">
-      <c r="A11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="21">
-        <v>79175538.799999997</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-    </row>
-    <row r="12" spans="1:19" ht="60.75">
-      <c r="A12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="21">
-        <v>5220250</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>16</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-    </row>
-    <row r="13" spans="1:19" ht="106.5">
-      <c r="A13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="21">
-        <v>7604750</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>16</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-    </row>
-    <row r="14" spans="1:19" ht="76.5">
-      <c r="A14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="21">
-        <v>10440500</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="I14" s="12">
         <v>150</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="J14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1474,43 +1536,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="106.5">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7">
         <v>22466600</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6">
         <v>104</v>
@@ -1523,22 +1585,22 @@
       </c>
       <c r="I2" s="6"/>
       <c r="K2" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60.75">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7">
         <v>37128204.799999997</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6">
         <v>46000</v>
@@ -1551,17 +1613,17 @@
     </row>
     <row r="4" spans="1:11" ht="45.75">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7">
         <v>2784615.36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6">
         <v>140</v>
@@ -1574,17 +1636,17 @@
     </row>
     <row r="5" spans="1:11" ht="60.75">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7">
         <v>33647435.600000001</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6">
         <v>24000</v>
@@ -1597,17 +1659,17 @@
     </row>
     <row r="6" spans="1:11" ht="45.75">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7">
         <v>3707150</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6">
         <v>2400</v>
@@ -1622,17 +1684,17 @@
     </row>
     <row r="7" spans="1:11" ht="60.75">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7">
         <v>94465293.400000006</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="8">
         <v>2520</v>
@@ -1645,17 +1707,17 @@
     </row>
     <row r="8" spans="1:11" ht="60.75">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7">
         <v>94465293.400000006</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="8">
         <v>2520</v>
@@ -1671,14 +1733,14 @@
         <v>10046575</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7">
         <v>86323921.109999999</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8">
         <v>2521</v>
@@ -1691,17 +1753,17 @@
     </row>
     <row r="10" spans="1:11" ht="76.5">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7">
         <v>98175000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="8">
         <v>2521</v>
@@ -1714,17 +1776,17 @@
     </row>
     <row r="11" spans="1:11" ht="60.75">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7">
         <v>79175538.799999997</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="8">
         <v>3000</v>
@@ -1737,17 +1799,17 @@
     </row>
     <row r="12" spans="1:11" ht="60.75">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7">
         <v>5220250</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6">
         <v>20</v>
@@ -1759,22 +1821,22 @@
         <v>16</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="106.5">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="7">
         <v>7604750</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="6">
         <v>20</v>
@@ -1786,22 +1848,22 @@
         <v>16</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="76.5">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7">
         <v>10440500</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6">
         <v>135</v>
@@ -1813,7 +1875,7 @@
         <v>150</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1844,160 +1906,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>64</v>
+      <c r="A2" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="19"/>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>70</v>
+      <c r="A5" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="20"/>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
-        <v>78</v>
+      <c r="A10" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
-        <v>83</v>
+      <c r="A12" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="22"/>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2075,6 +2137,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2323,23 +2394,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{759D6A1A-FA3D-4CA9-A08A-ADC151C68B96}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2906F6FB-D5CA-473F-B7A7-9AC08A65D95E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1600E399-33EB-46FD-9E06-28CDEB1158CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1600E399-33EB-46FD-9E06-28CDEB1158CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2906F6FB-D5CA-473F-B7A7-9AC08A65D95E}"/>
 </file>
--- a/01_Input/00_CO Validation/Nigeria - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Nigeria - Energy Projects.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_548EB2636DD9345948A5ABEB674C5A36783B1F62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64CE59B4-D35E-4A68-9F27-9A17980581E1}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_548EB2636DD9345948A5ABEB674C5A36783B1F62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E72282-DD09-4C61-BFDB-26F00FA79544}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="107">
   <si>
     <t>Project ID</t>
   </si>
@@ -71,10 +72,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -95,6 +93,15 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>CKT-NGA10-2022-030</t>
   </si>
   <si>
@@ -108,6 +115,12 @@
   </si>
   <si>
     <t>104 beneficiaries</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
   </si>
   <si>
     <r>
@@ -151,10 +164,13 @@
 500 HOUSING UNIT, BANKI TOWN, BAMA LGA, BORNO STATE</t>
   </si>
   <si>
-    <t>Electricity Access</t>
+    <t>Energy Infrastructure Services</t>
   </si>
   <si>
     <t>46000 beneficiaries</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
   </si>
   <si>
     <t>NGA10-0000026575</t>
@@ -259,49 +275,67 @@
     <t>6Blocks of classrooms were constructed for minimum 150 pupils, however, the enrolement for now is 135 pupils.</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comments </t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
-  </si>
-  <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
-  </si>
-  <si>
-    <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -310,7 +344,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -325,13 +362,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -340,19 +374,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -365,12 +399,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,8 +454,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,48 +477,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -503,71 +520,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,11 +958,788 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB67DF34-FB03-4C07-B100-0B325B8A953F}">
+  <dimension ref="A1:Z15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="76.5">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="15">
+        <v>22466600</v>
+      </c>
+      <c r="E2" s="15">
+        <f>D2/764</f>
+        <v>29406.544502617802</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10">
+        <v>52</v>
+      </c>
+      <c r="I2" s="10">
+        <v>104</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="26"/>
+      <c r="Z2" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="60.75">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="15">
+        <v>37128204.799999997</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E14" si="0">D3/764</f>
+        <v>48597.126701570676</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>46000</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="26"/>
+      <c r="Z3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="45.75">
+      <c r="A4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="15">
+        <v>2784615.36</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" si="0"/>
+        <v>3644.7845026178011</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>140</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="26"/>
+      <c r="Z4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" ht="60.75">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="15">
+        <v>33647435.600000001</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="0"/>
+        <v>44041.146073298434</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>24000</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="26"/>
+      <c r="Z5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" ht="45.75">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="15">
+        <v>3707150</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="0"/>
+        <v>4852.2905759162304</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2400</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="26"/>
+      <c r="Z6" s="16"/>
+    </row>
+    <row r="7" spans="1:26" ht="60.75">
+      <c r="A7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="15">
+        <v>94465293.400000006</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>123645.6719895288</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2520</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="26"/>
+      <c r="Z7" s="16"/>
+    </row>
+    <row r="8" spans="1:26" ht="60.75">
+      <c r="A8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15">
+        <v>94465293.400000006</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>123645.6719895288</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2520</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="26"/>
+      <c r="Z8" s="16"/>
+    </row>
+    <row r="9" spans="1:26" ht="60.75">
+      <c r="A9" s="10">
+        <v>10046575</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="15">
+        <v>86323921.109999999</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>112989.42553664921</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2521</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="26"/>
+      <c r="Z9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" ht="76.5">
+      <c r="A10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15">
+        <v>98175000</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
+        <v>128501.30890052357</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2521</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="26"/>
+      <c r="Z10" s="16"/>
+    </row>
+    <row r="11" spans="1:26" ht="60.75">
+      <c r="A11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="15">
+        <v>79175538.799999997</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>103632.90418848167</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="26"/>
+      <c r="Z11" s="16"/>
+    </row>
+    <row r="12" spans="1:26" ht="60.75">
+      <c r="A12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="15">
+        <v>5220250</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>6832.7879581151828</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>16</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="26"/>
+      <c r="Z12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" ht="106.5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="15">
+        <v>7604750</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>9953.8612565445019</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>16</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="26"/>
+      <c r="Z13" s="16"/>
+    </row>
+    <row r="14" spans="1:26" ht="76.5">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15">
+        <v>10440500</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>13665.575916230366</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>150</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="26"/>
+      <c r="Z14" s="16"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R14" xr:uid="{956721B7-295F-404B-8A9A-6E94107432E9}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O14" xr:uid="{8E8B510A-5E1B-4F54-901F-A704BFEB4787}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P14" xr:uid="{F0933C76-94D3-4267-825C-FC5C5B9A0E5D}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N14" xr:uid="{CBF9D8F8-9DC8-4240-91CB-4D232A809365}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U14" xr:uid="{A9B8D789-9C76-455F-8A4B-E33C9C46B34B}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q14" xr:uid="{97722E32-E928-41BD-AA1A-CE5515C56225}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M14" xr:uid="{BE6C0E4E-8BC5-440A-ADDD-3510C5E69986}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S14" xr:uid="{C1F91716-A6CF-4C47-97A5-22D3672C6C8C}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T14" xr:uid="{2741FFAB-8207-498D-960A-D9520D6247FB}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{33D0F216-03B6-4F92-AE8B-3C537803E597}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77441D1D-9D5F-443A-AA56-C74F30CAFFF5}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -893,619 +1756,619 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45.75">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="11" t="s">
+      <c r="M1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="2" spans="1:20" ht="106.5">
-      <c r="A2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="17">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="15">
         <v>22466600</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <f>D2/764</f>
         <v>29406.544502617802</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10">
         <v>52</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="10">
         <v>104</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
+      <c r="J2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="60.75">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="17">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="15">
         <v>37128204.799999997</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <f t="shared" ref="E3:E14" si="0">D3/764</f>
         <v>48597.126701570676</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="F3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>46000</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="J3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="45.75">
-      <c r="A4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="17">
+      <c r="A4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="15">
         <v>2784615.36</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <f t="shared" si="0"/>
         <v>3644.7845026178011</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="F4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>140</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
+      <c r="J4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="60.75">
-      <c r="A5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="17">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="15">
         <v>33647435.600000001</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>44041.146073298434</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="F5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>24000</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+      <c r="J5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="45.75">
-      <c r="A6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="17">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="15">
         <v>3707150</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>4852.2905759162304</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="F6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10">
         <v>2000</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>2400</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
+      <c r="J6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:20" ht="60.75">
-      <c r="A7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="17">
+      <c r="A7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="15">
         <v>94465293.400000006</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>123645.6719895288</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="F7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>2520</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
+      <c r="J7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:20" ht="60.75">
-      <c r="A8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="17">
+      <c r="A8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15">
         <v>94465293.400000006</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>123645.6719895288</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10">
         <v>0</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>2520</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="J8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:20" ht="60.75">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>10046575</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17">
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="15">
         <v>86323921.109999999</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>112989.42553664921</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="F9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="10">
         <v>0</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <v>2521</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
+      <c r="J9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20" ht="76.5">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="17">
+      <c r="A10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15">
         <v>98175000</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>128501.30890052357</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="10">
         <v>0</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>2521</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="J10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="60.75">
-      <c r="A11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17">
+      <c r="A11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="15">
         <v>79175538.799999997</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>103632.90418848167</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="F11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10">
         <v>0</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>3000</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
+      <c r="J11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:20" ht="60.75">
-      <c r="A12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="17">
+      <c r="A12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="15">
         <v>5220250</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>6832.7879581151828</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="F12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="10">
         <v>0</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>16</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
+      <c r="J12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="106.5">
-      <c r="A13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="17">
+      <c r="A13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="15">
         <v>7604750</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>9953.8612565445019</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="F13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="10">
         <v>0</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>16</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" ht="76.5">
+      <c r="A14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-    </row>
-    <row r="14" spans="1:20" ht="76.5">
-      <c r="A14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="17">
+      <c r="B14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15">
         <v>10440500</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>13665.575916230366</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="F14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="10">
         <v>0</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>150</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+      <c r="J14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -1553,527 +2416,550 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="106.5">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5">
+        <v>22466600</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4">
+        <v>104</v>
+      </c>
+      <c r="G2" s="4">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4">
+        <v>104</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60.75">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5">
+        <v>37128204.799999997</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4">
+        <v>46000</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>46000</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="45.75">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5">
+        <v>2784615.36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="4">
+        <v>140</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>140</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="60.75">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5">
+        <v>33647435.600000001</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="4">
+        <v>24000</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>24000</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="45.75">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5">
+        <v>3707150</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2400</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2400</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="60.75">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5">
+        <v>94465293.400000006</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2520</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>2520</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="60.75">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5">
+        <v>94465293.400000006</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2520</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4">
+        <v>2520</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="60.75">
+      <c r="A9" s="3">
+        <v>10046575</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5">
+        <v>86323921.109999999</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2521</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
+        <v>2521</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="76.5">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5">
+        <v>98175000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2521</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4">
+        <v>2521</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="60.75">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5">
+        <v>79175538.799999997</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="60.75">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <v>5220250</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="4">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="106.5">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="106.5">
-      <c r="A2" s="5" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="5">
+        <v>7604750</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="4">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7">
-        <v>22466600</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6">
-        <v>104</v>
-      </c>
-      <c r="G2" s="6">
-        <v>52</v>
-      </c>
-      <c r="H2" s="6">
-        <v>104</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="K2" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="60.75">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7">
-        <v>37128204.799999997</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6">
-        <v>46000</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6">
-        <v>46000</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="45.75">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7">
-        <v>2784615.36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6">
-        <v>140</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
-        <v>140</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="60.75">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7">
-        <v>33647435.600000001</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6">
-        <v>24000</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <v>24000</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="45.75">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7">
-        <v>3707150</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2400</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2400</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="60.75">
-      <c r="A7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7">
-        <v>94465293.400000006</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="8">
-        <v>2520</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
-        <v>2520</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="60.75">
-      <c r="A8" s="5" t="s">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="76.5">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5">
+        <v>10440500</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7">
-        <v>94465293.400000006</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2520</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
-        <v>2520</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="60.75">
-      <c r="A9" s="5">
-        <v>10046575</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7">
-        <v>86323921.109999999</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2521</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
-        <v>2521</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="76.5">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7">
-        <v>98175000</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2521</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6">
-        <v>2521</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="60.75">
-      <c r="A11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7">
-        <v>79175538.799999997</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="60.75">
-      <c r="A12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7">
-        <v>5220250</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="6">
-        <v>20</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F14" s="4">
+        <v>135</v>
+      </c>
+      <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="6">
-        <v>16</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="106.5">
-      <c r="A13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7">
-        <v>7604750</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="6">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>16</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="76.5">
-      <c r="A14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7">
-        <v>10440500</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="6">
-        <v>135</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>150</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>61</v>
+      <c r="I14" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="19"/>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="19"/>
-      <c r="B4" t="s">
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B3" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20"/>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="20"/>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B4" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="20"/>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="20"/>
-      <c r="B9" t="s">
+      <c r="B5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="21"/>
-      <c r="B11" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="22" t="s">
+      <c r="B10" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B11" s="28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="22"/>
-      <c r="B13" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="22"/>
-      <c r="B14" t="s">
+      <c r="B13" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="28" t="s">
         <v>95</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2134,15 +3020,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2395,11 +3272,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{759D6A1A-FA3D-4CA9-A08A-ADC151C68B96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1600E399-33EB-46FD-9E06-28CDEB1158CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1600E399-33EB-46FD-9E06-28CDEB1158CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{759D6A1A-FA3D-4CA9-A08A-ADC151C68B96}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
